--- a/results/MVSE/acm/MVSE_acm<l03>AllRes_88.62.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03>AllRes_88.62.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>acm</t>
@@ -569,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -638,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -711,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -750,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -803,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_35_33', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -853,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -892,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -922,7 +948,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
@@ -995,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1091,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_03_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1107,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1137,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
@@ -1176,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1206,7 +1248,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
@@ -1279,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1318,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1348,7 +1398,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
@@ -1387,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1417,7 +1473,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
@@ -1456,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1509,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_13_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1525,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1578,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_57_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1594,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1647,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_18_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1663,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1716,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_59_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1789,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_23_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1839,7 +1923,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
@@ -1878,7 +1964,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1908,7 +1998,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
@@ -1947,7 +2039,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1977,7 +2073,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
@@ -2016,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2046,7 +2148,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2085,7 +2189,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2138,7 +2246,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_06_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2154,7 +2264,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2207,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2257,7 +2373,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
@@ -2353,7 +2471,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_44_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2426,7 +2546,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_28_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2442,7 +2564,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2472,7 +2598,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
@@ -2568,7 +2696,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_46_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2584,7 +2714,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2637,7 +2771,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_19_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2653,7 +2789,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2706,7 +2846,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_17_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2779,7 +2921,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_07_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2795,7 +2939,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2848,7 +2996,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2864,7 +3014,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2917,7 +3071,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_31_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2933,7 +3089,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2986,7 +3146,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_52_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3002,7 +3164,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>acm</t>
@@ -3055,7 +3221,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_50_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
